--- a/Praca magisterska/testy — kopia.xlsx
+++ b/Praca magisterska/testy — kopia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7330C20-EAE7-4C1D-AC20-F8D40AD690C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA74FE-9519-47DF-85AC-232144720A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="16905" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="275">
   <si>
     <t>Educational:</t>
   </si>
@@ -610,12 +610,6 @@
   </si>
   <si>
     <t>Navigacja w stopce nie ma tagu nav.Nieporawne użycie hNiepoprawny opis button zamknij.</t>
-  </si>
-  <si>
-    <t>Nieosiągalny element (dropdown).</t>
-  </si>
-  <si>
-    <t>Nieosiągalny element (ikona tooltipu). Nieosiągalny popup. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded).</t>
   </si>
   <si>
     <t xml:space="preserve">Brak linku ominięcia nagłówka. </t>
@@ -716,9 +710,6 @@
     <t>Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Expanding the menu doen;t move the focus inside it. Link oznaczony jako przycisk. Przycisk dropdowna oznaczony jako link. Brak informacji o aktywnej stronie w nawigacji. Podwójne oznaczenie elementów (link-link, button-button). Zduplikowana informacja (link/tytuł do filmu). User verified icon is read as link. Navigation collapsed elements are read as tabs instead of links. Brak informacji o ładowaniu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Brak linku ominięcia nagłówka.  Brak widocznego focusu na elemencie interaktywnym. Nieporaawna nawigacja po ankiecie zadowolenia. Brak widocznego focusu na elemencie interaktywnym (link z grafiką). Dostęp do ukrytych elementów. Popup nie możliwy do otwarcia kalwiaturą. Zduplikowny link. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak oznaczenia niepoprawnego pola formularza (brak czerwonej ramki). </t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     <t xml:space="preserve">Rozwinięcie rozszerzonego menu nie przenosi focusu do menu. Focus na niewidocznym elemencie. Popup bez focus trap. Brak możliwości zaknięcia popupu "esc". Brak linku ominięcia nagłówka. </t>
   </si>
   <si>
-    <t>Podwójne oznaczenie elementów (link-link, button-button). Przycisk nieoznaczony jako "expanded/collapsed". Link oznaczony jako przycisk expanded/collapsed. Video odczytane jako "index" link.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak atrybutu "alt" na istotnej grafice. Zniezorozumiała informacja w atrybucie "alt" grafiki. </t>
   </si>
   <si>
@@ -756,9 +744,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brak odczytanej nzwy pola formularza. Brak walidacji. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element. Brak możliwości otwarcia submenus w headerze. Focus na nieistniejącym elemencie. Niedziałający przycisk.Brak linku ominięcia nagłówka. Link wygląda jak dropdown. Popup bez focus trap.Brak przeniesiania focusu na otwarty popup. Brak widocznego focusu na elemencie interaktywnym.Focus na niewidocznym elemencie. </t>
   </si>
   <si>
     <t>Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element. Focus na nieistniejącym elemencie.Focus na niewidocznym elemencie. Dostęp do ukrytych elementów.</t>
@@ -776,64 +761,15 @@
 Brak informacji o otwartym popupie.</t>
   </si>
   <si>
-    <t>Nieoczekiwany focus trap z którego nie da się wyjść po otwarciu zdjęcia. Nie moża ominąć otwarcia zdjęcia. Tooltip nie znika po przejściu do innego elementu. Nieosiągalny element. Zamknięcie popupu przenosi focus na początek strony. Popup bez focus trap.
-Brak informacji o otwartym popupie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak linku ominięcia nagłówka. Popup bez focus trap. Rózna funkcja przycisku podczas użycia myszy i klawiature. 5. Brak aktualizaji menu baneru reklamowe podczas nawigacji. Brak widocznego focusu na elemencie interaktywnym (link z grafiką, dropdown). Dostęp do ukrytych elementów!!!. Nieosiągalny element. Zduplikowany link. Niepoprawne zachowanie nawigacji (expanded nie możliwy do pominięcia). Dropdown nie znika po przejściu do innego elementu. Brak możliwości zamknięcia dropwonu poprzez "esc". Brak widocznego focusu na elemencie interaktywnym. Odwiedzony link wygląda jak niedostępny. Zbyt niski kontrast. Tooltip nie znika po przejściu do innego elementu.
 Brak informacji o otwartym popupie.
 Zamknięcie popupu przenosi focus na początek strony. Czas nie jest w &lt;time&gt; tagu. Popup bez focus trap. Popup dołączony na koniec strony. </t>
   </si>
   <si>
-    <t>Brak informacji o aktualnej stronie w nawigacji. Brak informacji o otwartym tooltipie. Przycisk bez opisu. Link odczytany jako lista. Przycisk dropdowna oznaczony jako link. Przcisk oznaczony jako link. Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. 
-Brak informacji o otwartym popupie.</t>
-  </si>
-  <si>
-    <t>Brak informacji o notyfikacji. Brak informacji o ładowaniu. Niepoprawnie odczytane strony paginacji. 
-Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. Brak informacji o przycisku collapsed/expanded. Błąd walidacji nie odczytany natychmiastowo. Błędne oznaczenie niepoprawnego pola formularza. 
-Brak informacji o otwartym popupie.</t>
-  </si>
-  <si>
-    <t>Brak opisu przycisku. Elementy dostępne, ale ukryte, odczytane jako "blank". Link odczytany jako lista. Zbędne informacje o użytej grafice (nazwa liku jest wystarczająca).  Brak informacji o otwieranym toolipie, czy innej akcji. Niespójny opis ikon social mediów. 
-Brak informacji o otwartym popupie.</t>
-  </si>
-  <si>
-    <r>
-      <t>Przycisk dropdowna oznaczony jako link.
-Przycisk bez opisu. Radio buttons odczytane jako link. Zakładki (tabs) niepoprawnie oznaczone.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brak informacji o otwartym popupie.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Zakładki (tabs) niepoprawnie oznaczone. Przycisk dropdowna oznaczony jako link.
 Brak informacji o otwartym popupie.</t>
   </si>
   <si>
-    <t>Niepoprawnie opisany link. Link odczytany jako "blank". Niepoprawna informacja w "alt" grafiki. Istotna informacja nie odczytana.
-Brak informacji o otwartym popupie.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Link odczytany jako "blank".Istotna informacja nie odczytana.
 Brak informacji o otwartym popupie.</t>
   </si>
@@ -886,23 +822,70 @@
     <t xml:space="preserve">Atrybut "alt" odczytany jako "obrazek". </t>
   </si>
   <si>
-    <t xml:space="preserve">Przycisk dropdowna oznaczony jako link. Przycisk oznaczony jako link. Nawigacja nie ma tagu &lt;nav&gt;. Pole formularza odczytane jako tabela.Niespójne nazewnictwo linków. Nawigacja podzielona na dwie listy. Dostęp do ukrytych elementów. Data odczytana niepoprawnie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nawigacja nie ma tagu &lt;nav&gt;. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementy listy nie odczytane. Nawigacja nie ma tagu &lt;nav&gt;. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dropdown nie znika po przejściu do innego elementu. Focus na nieinteraktywnym elemencie.Dwa linki na jednym elelencie prowadzące do różnych miejsc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przycisk dropdowna oznaczony jako link. Przycisk oznaczony jako link. Nawigacja nie ma tagu &lt;nav&gt;. Pole formularza odczytane jako tabela.Niespójne nazewnictwo linków. Nawigacja podzielona na dwie listy. Dostęp do ukrytych elementów. Data odczytana niepoprawnie. Nawigacja oznaczona jako header. Niepoprawnie odczytany link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementy listy nie odczytane. Nawigacja nie ma tagu &lt;nav&gt;. Nawigacja oznaczona jako header.Niepoprawnie odczytany link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawigacja nie ma tagu &lt;nav&gt;. Nawigacja oznaczona jako header.Niepoprawnie odczytany link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element. Brak możliwości otwarcia submenus w headerze. Focus na nieistniejącym elemencie. Niedziałający przycisk.Brak linku ominięcia nagłówka. Link wygląda jak dropdown. Popup bez focus trap.Brak przeniesiania focusu na otwarty popup. Brak widocznego focusu na elemencie interaktywnym.Focus na niewidocznym elemencie. Zbyt niski kontrast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawnie opisany link. Link odczytany jako "blank". Niepoprawna informacja w "alt" grafiki. Istotna informacja nie odczytana.
+Brak informacji o otwartym popupie. Brak tekstu alternatywnego. Zduplikowany tekst linku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podwójne oznaczenie elementów (link-link, button-button). Przycisk nieoznaczony jako "expanded/collapsed". Link oznaczony jako przycisk expanded/collapsed. Video odczytane jako "index" link. Brak h1. Link bez nazwy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przycisk dropdowna oznaczony jako link.
+Przycisk bez opisu. Radio buttons odczytane jako link. Zakładki (tabs) niepoprawnie oznaczone.
+Brak informacji o otwartym popupie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak opisu przycisku. Elementy dostępne, ale ukryte, odczytane jako "blank". Link odczytany jako lista. Zbędne informacje o użytej grafice (nazwa liku jest wystarczająca).  Brak informacji o otwieranym toolipie, czy innej akcji. Niespójny opis ikon social mediów. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. Nieodpowiednia nazwa linku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak linku ominięcia nagłówka.  Brak widocznego focusu na elemencie interaktywnym. Nieporaawna nawigacja po ankiecie zadowolenia. Brak widocznego focusu na elemencie interaktywnym (link z grafiką). Dostęp do ukrytych elementów. Popup nie możliwy do otwarcia kalwiaturą. Zduplikowny link. Niski kontrast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o notyfikacji. Brak informacji o ładowaniu. Niepoprawnie odczytane strony paginacji. 
+Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. Brak informacji o przycisku collapsed/expanded. Błąd walidacji nie odczytany natychmiastowo. Błędne oznaczenie niepoprawnego pola formularza. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o aktualnej stronie w nawigacji. Brak informacji o otwartym tooltipie. Przycisk bez opisu. Link odczytany jako lista. Przycisk dropdowna oznaczony jako link. Przcisk oznaczony jako link. Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. </t>
+  </si>
+  <si>
+    <t>Nieosiągalny element (dropdown). Za mały tekst.</t>
+  </si>
+  <si>
+    <t>Nieosiągalny element (ikona tooltipu). Nieosiągalny popup. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Za mały tekst.</t>
+  </si>
+  <si>
+    <t>Nieoczekiwany focus trap z którego nie da się wyjść po otwarciu zdjęcia. Nie moża ominąć otwarcia zdjęcia. Tooltip nie znika po przejściu do innego elementu. Nieosiągalny element. Zamknięcie popupu przenosi focus na początek strony. Popup bez focus trap.
+Brak informacji o otwartym popupie. Za mały tekst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o otwartym popupie. Brak h1. </t>
+  </si>
+  <si>
+    <t>Ominięty poziom H2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,14 +930,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -989,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1003,6 +978,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1879,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A744A367-74A6-4EC3-B153-D71CD0BA8117}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1895,6 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
@@ -1936,19 +1913,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -1959,16 +1936,16 @@
         <v>186</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -1976,19 +1953,19 @@
         <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -1999,39 +1976,39 @@
         <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -2039,19 +2016,19 @@
         <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -2062,36 +2039,36 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>132</v>
@@ -2102,21 +2079,22 @@
         <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>133</v>
       </c>
     </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
@@ -2127,7 +2105,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2135,19 +2113,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -2155,19 +2133,19 @@
         <v>110</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -2178,19 +2156,19 @@
         <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -2199,22 +2177,22 @@
         <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2222,19 +2200,19 @@
         <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -2242,19 +2220,19 @@
         <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2279,16 +2257,16 @@
         <v>138</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2296,10 +2274,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>134</v>
@@ -2308,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2316,10 +2294,10 @@
         <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>134</v>
@@ -2328,7 +2306,7 @@
         <v>134</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2339,10 +2317,10 @@
         <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>134</v>
@@ -2351,7 +2329,7 @@
         <v>134</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -2359,10 +2337,10 @@
         <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>134</v>
@@ -2371,7 +2349,7 @@
         <v>134</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -2379,10 +2357,10 @@
         <v>108</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>134</v>
@@ -2391,7 +2369,7 @@
         <v>134</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -2402,10 +2380,10 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>134</v>
@@ -2414,7 +2392,7 @@
         <v>134</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2403,7 @@
         <v>135</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>134</v>
@@ -2434,7 +2412,7 @@
         <v>134</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2420,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>134</v>
@@ -2451,10 +2429,10 @@
         <v>134</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2462,13 +2440,13 @@
         <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>134</v>
@@ -2477,15 +2455,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>134</v>
@@ -2494,7 +2472,7 @@
         <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -2502,13 +2480,13 @@
         <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>134</v>
@@ -2518,7 +2496,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2506,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2536,59 +2514,59 @@
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>182</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2574,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>184</v>
@@ -2608,15 +2586,15 @@
         <v>134</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>183</v>
@@ -2628,15 +2606,15 @@
         <v>134</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>185</v>
@@ -2648,7 +2626,7 @@
         <v>134</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2659,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>134</v>
@@ -2685,7 +2663,7 @@
         <v>134</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2723,19 +2701,19 @@
         <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,19 +2721,19 @@
         <v>109</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2763,19 +2741,19 @@
         <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2786,10 +2764,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>146</v>
@@ -2798,7 +2776,7 @@
         <v>134</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2806,7 +2784,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>146</v>
@@ -2815,7 +2793,7 @@
         <v>134</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2823,7 +2801,7 @@
         <v>108</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>146</v>
@@ -2832,7 +2810,7 @@
         <v>134</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2843,16 +2821,16 @@
         <v>63</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2860,7 +2838,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>146</v>
@@ -2869,7 +2847,7 @@
         <v>131</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2877,7 +2855,7 @@
         <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>146</v>
@@ -2886,7 +2864,7 @@
         <v>134</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2907,10 +2885,10 @@
         <v>24</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>134</v>
@@ -2919,7 +2897,7 @@
         <v>134</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -2927,7 +2905,7 @@
         <v>109</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>163</v>
@@ -2939,7 +2917,7 @@
         <v>134</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2947,10 +2925,10 @@
         <v>108</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>134</v>
@@ -2959,7 +2937,7 @@
         <v>134</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -2982,7 +2960,7 @@
         <v>134</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -2990,7 +2968,7 @@
         <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>165</v>
@@ -3002,7 +2980,7 @@
         <v>134</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -3010,7 +2988,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>165</v>
@@ -3022,7 +3000,7 @@
         <v>134</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
@@ -3033,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>189</v>
@@ -3045,7 +3023,7 @@
         <v>134</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3031,7 @@
         <v>109</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>164</v>
@@ -3065,7 +3043,7 @@
         <v>134</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3063,7 @@
         <v>134</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3107,7 @@
         <v>121</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>169</v>
@@ -3194,7 +3172,7 @@
         <v>134</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3214,7 +3192,7 @@
         <v>134</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3231,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3252,16 +3230,19 @@
         <v>27</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3275,10 +3256,10 @@
         <v>187</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>144</v>
@@ -3292,16 +3273,19 @@
         <v>67</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3322,7 +3306,7 @@
         <v>151</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>134</v>
@@ -3342,7 +3326,7 @@
         <v>154</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>155</v>
@@ -3359,7 +3343,7 @@
         <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>134</v>
@@ -3389,16 +3373,16 @@
         <v>126</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3409,7 +3393,7 @@
         <v>58</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>145</v>
@@ -3418,7 +3402,7 @@
         <v>134</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3429,7 +3413,7 @@
         <v>148</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>150</v>
@@ -3459,16 +3443,16 @@
         <v>29</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3476,13 +3460,13 @@
         <v>129</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>139</v>
@@ -3493,16 +3477,16 @@
         <v>130</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3513,10 +3497,10 @@
         <v>72</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>141</v>
@@ -3527,16 +3511,16 @@
         <v>129</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3544,16 +3528,16 @@
         <v>130</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>142</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3564,7 +3548,7 @@
         <v>51</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>134</v>
@@ -3581,7 +3565,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>134</v>
@@ -3598,7 +3582,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>134</v>

--- a/Praca magisterska/testy — kopia.xlsx
+++ b/Praca magisterska/testy — kopia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA74FE-9519-47DF-85AC-232144720A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1226D3-2BFB-4B51-B791-C919CD4D9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="16905" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="300">
   <si>
     <t>Educational:</t>
   </si>
@@ -465,12 +465,6 @@
     <t xml:space="preserve">Brak możliwości otworzenie menu. Buttony do zmiany strony karuzeli są za małe. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś. </t>
-  </si>
-  <si>
-    <t>Brak dynamicznej walidacji formularza (dopiero po submicie). Nie consisten walidacja, część default HTML część JS. Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś.  Brak dokłądnych errorów walidacji. Brak użycia odpowiedniego typu pól (number, postcode).</t>
-  </si>
-  <si>
     <t>Opening website in the mobile version triggers opening of the login form.</t>
   </si>
   <si>
@@ -507,81 +501,24 @@
     <t xml:space="preserve">Nazwa pola znika po wpisaniu wartości. Brak walidacji czy wisane wartości są poprawne. </t>
   </si>
   <si>
-    <t xml:space="preserve">Niedostępna zakłądka "schools". Dwa linki prowadzące do jednego miejsca odobk siebie (zdjęcie I nazwisko). </t>
-  </si>
-  <si>
     <t>Nazwa pola znika po wpisaniu wartości (search).</t>
   </si>
   <si>
-    <t xml:space="preserve">Mało widoczny fous na zdjęciu użytwkonika. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ikona menu nie mieści się na ekranie. </t>
   </si>
   <si>
     <t xml:space="preserve">Button "załóż konto" nie zawsze mieści się na ekranie. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cofanie focusu nie pokazuje dropdownów. Ikona home jest za mała I nie ma opisu tekstowego. Pusty popup. Niedostępny przycisk do otwarcia popupu. Brak focus trap na popupch. </t>
-  </si>
-  <si>
     <t>Zbędny selektor sposobu składani awnisku.</t>
   </si>
   <si>
-    <t>Breadcrumb doesn’t state current state.</t>
-  </si>
-  <si>
-    <t>Breadcrumbs do not have proper tag. Collapsed elements do not have collaped or expanded tag. Navigacja w stopce nie ma tagu nav.Nieporawne użycie h1.</t>
-  </si>
-  <si>
-    <t>Breadcrumbs do not have proper tag. Wrong usage of h2 heading.</t>
-  </si>
-  <si>
-    <t>Wrong usage of h2 heading. Missing heading on the site title. Navigation does not indicate current page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwa linki obok siebie prowadzące do tego samego miejsca. Button tylko dla klwaiaturey "skip to linkedin news" nie prowadzi do niczego. Brak focusu na wyborze osób w nowej wiadomości. Brak możliwości wybporu osoby. Side navigation dropdowns do no tfit on the page. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time 1w is not read properly as week. Bardzo dokładne opisanie elenetów na stronie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No error message that the comment to be posterd is emty. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak focusu. </t>
   </si>
   <si>
-    <t xml:space="preserve">Collapsable button doent say collapesed/expanded. No alt text of the user picture. </t>
-  </si>
-  <si>
-    <t>The page doesn’t center on the focused element in the friends area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inaccessible popup/tooltio on the user info. No button to skip to main content. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Form errors are not read in screen reader. The red frame doesn’t dissaera when the erroris resolved. </t>
   </si>
   <si>
-    <t>Use of popups with information about subreddit and user open automaticcly which causers problems with SRs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some dropdown buttons are inaccessible. Inconsistent focus in the dropdowns. Some dropdowns do not disappear after exiting them. Button to edit user fair is inaccessible. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout and dark mode buttons are inaccesible.  Going back to skip links brakes them  (they do not skip anythingn anymore). Skop to right sidebar link doesn't work. </t>
-  </si>
-  <si>
-    <t>Logout and dark mode buttons are inaccesible.  Going back to skip links brakes them  (they do not skip anythingn anymore). Skop to right sidebar link doesn't work. Safe search button doesn’t have focus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of popups with information about subreddit and user open automaticcly which causers problems with SRs. The collapsed/expanded state of buttons ios not always read correctly. Joined button is not describled well enough (just says Joined). No inromation about loading. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabs are in wrong order. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Link to user's channel reads only as "go to channel" witout sataing the channel name. Some elemnts are read as "blank" or just "clickable". The added at timestamp is not always corretly read. The cappter timestamp is not always corretly ready (i.e. 0:00 is midnight). Information about how long is the video is sto correctyl stated (just a random number). </t>
   </si>
   <si>
@@ -606,15 +543,6 @@
     <t>Nie wszstie elementy mieszczą się na małym ekranie (tekst na banerze). 2. Po otwarciu menu użytkownika moża cały czas scrollowac niewidoczą stronę główną.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Catouseld doesn't say that is is a carousel. Navigacja w stopce nie ma tagu nav. Nieporawne użycie hInfo icon has no alt text. </t>
-  </si>
-  <si>
-    <t>Navigacja w stopce nie ma tagu nav.Nieporawne użycie hNiepoprawny opis button zamknij.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak linku ominięcia nagłówka. </t>
-  </si>
-  <si>
     <t>Focus na nieinteraktywnym elemencie.</t>
   </si>
   <si>
@@ -636,18 +564,9 @@
     <t xml:space="preserve">Brak walidacji. Brak widocznych infomacji błędu.Nazwa pola formularza znika po wpisaniu. </t>
   </si>
   <si>
-    <t xml:space="preserve">Popup bez focus trap. Nieosiągalny popup. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieosiągalny element. Brak linku ominięcia nagłówka. </t>
-  </si>
-  <si>
     <t>Focus na niewidocznym elemencie. Brak widocznego focusu na elemencie interaktywnym. Focus na niewidocznym linku. Zbyt niski kontrast fokusu.</t>
   </si>
   <si>
-    <t>Nieosiągalny element. . Brak linku ominięcia nagłówka. Brak możliwości zamknięcia menu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak widocznych infomacji błędu. Nazwa pola znika po wpisaniu wartości. </t>
   </si>
   <si>
@@ -657,23 +576,10 @@
     <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym.  Niedostępne linki niewidoczne aktualnie w karuzeli. </t>
   </si>
   <si>
-    <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym. Niedostępne linki niewidoczne aktualnie w karuzeli. </t>
-  </si>
-  <si>
     <t>Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element.</t>
   </si>
   <si>
-    <t>Brak widocznego focusu na elemencie interaktywnym.
-Nieosiągalny element.</t>
-  </si>
-  <si>
     <t>Nieosiągalny element. Brak widocznego focusu na elemencie interaktywnym.</t>
-  </si>
-  <si>
-    <t>Nieosiągalny element. Focus na nieistniejącym elemencie. Brak widocznego focusu na elemencie interaktywnym.</t>
-  </si>
-  <si>
-    <t>Focus na niewidocznym elemencie. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Nieosiągalny element. Odwrócona kolejność focusu na stopce.  Brak linku ominięcia nagłówka.</t>
   </si>
   <si>
     <t>Brak walidacji.
@@ -681,18 +587,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nieosiągalny element. Focus na nieinteraktywnym elemencie. Brak linku ominięcia nagłówka.  </t>
-  </si>
-  <si>
-    <t>Dropdown menus w headerze się nie otwierają a jednak focus na nich jest, mimo że ich nie widać. Nie ma informacji że to są elementy sub menu so otwieralne. Nieosiągalny element. Dwa linki obok siebie prowadzące do tego soamego miejsca (link i obrazek wiadomosci). Fokus na niewidocznym elemencie. Brak widocznego focusu na elemencie interaktywnym. Odwrócona kolejność elementów w stopce. Popup bez focus trap. Brak linku ominięcia nagłówka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak przeniesienia focusu na menu po jego otworzeniu. Brak focus trap na menu.Popup bez focus trap. Nieosiągalny element.  Niepoprawna kolejność wyboru miasta. Brak linku ominięcia nagłówka. </t>
-  </si>
-  <si>
-    <t>Brak linku ominięcia nagłówka. Nieosiągalny element. Zbyt niski kontrast focusu.Popup bez focus trap. Dropdown nie znika po przejściu do innego elementu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zbyt niski kontrast fokusu.Brak widocznego focusu na elemencie interaktywnym.Nieporawna kolejność w folrmularzu (skok do headera).Focus na niewidocznym elemencie. Nieosiągalny element. Brak focus trap na popupie. Brak linku ominięcia nagłówka. </t>
   </si>
   <si>
     <t>Nieosiągalny element (slider głośności).</t>
@@ -849,20 +743,7 @@
 Brak informacji o otwartym popupie. </t>
   </si>
   <si>
-    <t xml:space="preserve">Brak opisu przycisku. Elementy dostępne, ale ukryte, odczytane jako "blank". Link odczytany jako lista. Zbędne informacje o użytej grafice (nazwa liku jest wystarczająca).  Brak informacji o otwieranym toolipie, czy innej akcji. Niespójny opis ikon social mediów. 
-Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. Nieodpowiednia nazwa linku. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Brak linku ominięcia nagłówka.  Brak widocznego focusu na elemencie interaktywnym. Nieporaawna nawigacja po ankiecie zadowolenia. Brak widocznego focusu na elemencie interaktywnym (link z grafiką). Dostęp do ukrytych elementów. Popup nie możliwy do otwarcia kalwiaturą. Zduplikowny link. Niski kontrast. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak informacji o notyfikacji. Brak informacji o ładowaniu. Niepoprawnie odczytane strony paginacji. 
-Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. Brak informacji o przycisku collapsed/expanded. Błąd walidacji nie odczytany natychmiastowo. Błędne oznaczenie niepoprawnego pola formularza. 
-Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak informacji o aktualnej stronie w nawigacji. Brak informacji o otwartym tooltipie. Przycisk bez opisu. Link odczytany jako lista. Przycisk dropdowna oznaczony jako link. Przcisk oznaczony jako link. Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. 
-Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. </t>
   </si>
   <si>
     <t>Nieosiągalny element (dropdown). Za mały tekst.</t>
@@ -878,7 +759,204 @@
     <t xml:space="preserve">Brak informacji o otwartym popupie. Brak h1. </t>
   </si>
   <si>
-    <t>Ominięty poziom H2.</t>
+    <t xml:space="preserve">Nawigacja bez tagu &lt;nav&gt;. Przycisk dropdowna oznaczony jako link. Link oznaczony jako przycisk. Najważniejszy formularz odczytany na końcu. Istotna informacja nie odczytana. Niezrozumiała nazwa linku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zbyt niski kontrast fokusu.Brak widocznego focusu na elemencie interaktywnym.Nieporawna kolejność w folrmularzu (skok do headera).Focus na niewidocznym elemencie. Nieosiągalny element. Brak focus trap na popupie. Brak linku ominięcia nagłówka. 
+Dostęp do ukrytych elementów. Zduplikowany link. Brak możliwości zaknięcia popupu "esc". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o stanie przycisky (wyłączony). Brak informacji o otwartym popupie. Przycisk odczytany jako "blank". Dni tygodnia odczytane niepoprawnie. Paginacja nie oznaczona poprawnie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak linku ominięcia nagłówka. Nieosiągalny element. Zbyt niski kontrast focusu.Popup bez focus trap. Dropdown nie znika po przejściu do innego elementu.Brak przeniesiania focusu na otwarty popup.  Zduplikowany link. Istotna informacja nie odczytana.Brak informacji o otwartym popupie.Brak możliwości zaknięcia popupu "esc". Nieodpowiednia kolejnośc tabulacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup bez focus trap. Nieosiągalny popup. Zduplikowany link. Istotna informacja nie odczytana.Brak informacji o otwartym popupie.Brak możliwości zaknięcia popupu "esc". Nieodpowiednia kolejnośc tabulacji. </t>
+  </si>
+  <si>
+    <t>Przycisk bez opisu. Niepoprawna nazwa linku. Przycisk dropdowna oznaczony jako link. Niepoprawne użycie heading. Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice.   Grafiki z nieodpowiednim tekstem alternatywnym. Dni tygodnia odczytane niepoprawnie.</t>
+  </si>
+  <si>
+    <t>Focus na niewidocznym elemencie.
+Brak widocznego focusu na elemencie interaktywnym.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawnie odczytana liczba. Podwójne oznaczenie elementów (link-link, button-button). Przycisk odczytany jako "blank". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak możliwości zatrzymania filmu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zduplikowany link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ominięty poziom H2.Nawigacja nie ma tagu &lt;nav&gt;. Brak przeniesiania focusu na otwarty popup. Przycisk dropdowna oznaczony jako link. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Niepoprawnie odczytana data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o otwartym popupie.Nawigacja nie ma tagu &lt;nav&gt;. </t>
+  </si>
+  <si>
+    <t>Brak przeniesienia focusu na menu po jego otworzeniu. Brak focus trap na menu.Popup bez focus trap. Nieosiągalny element.  Niepoprawna kolejność wyboru miasta. Brak przeniesiania focusu na otwarty popup. Nieosiągalny element.</t>
+  </si>
+  <si>
+    <t>Brak informacji o otwartym popupie.Istotna informacja nie odczytana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak możliwości zatrzymania animacji. </t>
+  </si>
+  <si>
+    <t>Nawigacja nie ma tagu &lt;nav&gt;.  Niepoprawna kolejność tabulacji. Nieosiągalny element. Element odczytany jako "blank". Zduplikowany link. Brak atrybutu "alt" na istotnej grafice. Niepoprawnie odcztana liczba. Przycisk bez opisu. Istotna informacja nie odczytana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieosiągalny element. . Brak linku ominięcia nagłówka. Brak możliwości zamknięcia menu.Brak przeniesiania focusu na otwarty popup. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieosiągalny element. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawigacja nie ma tagu &lt;nav&gt;.  Niepoprawnie odczytana data. Link bez opisu. Niepoprawna nazwa linku.  Nepoprawny tekst alternatyny grafiki. Brak informacji o aktualnej stronie w nawigacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niewidoczny elelment odczytany jako "blank". Brak informacji o otwartym popupie.Nawigacja nie ma tagu &lt;nav&gt;.  Link odczytany jako "blank". Brak informacji o aktualnej stronie w nawigacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o aktualnej stronie w nawigacji. Link bez opisu. </t>
+  </si>
+  <si>
+    <t>Brak opisu przycisku. Elementy dostępne, ale ukryte, odczytane jako "blank". Link odczytany jako lista. Zbędne informacje o użytej grafice (nazwa liku jest wystarczająca).  Brak informacji o otwieranym toolipie, czy innej akcji. Niespójny opis ikon social mediów. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. Nieodpowiednia nazwa linku.  Brak opisu pola formularza.</t>
+  </si>
+  <si>
+    <t>Brak informacji o aktualnej stronie w nawigacji. Brak informacji o otwartym tooltipie. Przycisk bez opisu. Link odczytany jako lista. Przycisk dropdowna oznaczony jako link. Przcisk oznaczony jako link. Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. Brak opisu pola formularza.</t>
+  </si>
+  <si>
+    <t>Brak informacji o notyfikacji. Brak informacji o ładowaniu. Niepoprawnie odczytane strony paginacji. 
+Istotna informacja nie odczytana.Brak atrybutu "alt" na istotnej grafice. Brak informacji o przycisku collapsed/expanded. Błąd walidacji nie odczytany natychmiastowo. Błędne oznaczenie niepoprawnego pola formularza. 
+Brak informacji o otwartym popupie. Brak h1. Ominięty poziom H3. Brak opisu pola formularza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak informacji o aktywnej stronie w nawigacji. </t>
+  </si>
+  <si>
+    <t>Nawigacja bez tagu &lt;nav&gt;. Niepoprawne użycie h2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawne użycie h2. Brak informacji o aktywnej stronie w nawigacji. </t>
+  </si>
+  <si>
+    <t>Ikona jest za mała. Brak atrybutu "alt" na istotnej grafice.  Pusty popup. Nieosiągalny element. Popup bez focus trap.</t>
+  </si>
+  <si>
+    <t>Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Nawigacja bez tagu &lt;nav&gt;. Nieporawne użycie h1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawigacja bez tagu &lt;nav&gt;. Nieporawne użycie h, Niepoprawna nazwa przycisku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawigacja bez tagu &lt;nav&gt;.  Nieporawne użycie h. Brak atrybutu "alt" na istotnej grafice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Brak atrybutu "alt" na istotnej grafice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawna kolejność tabulacji. </t>
+  </si>
+  <si>
+    <t>Brak widocznych infomacji błędu.Brak dokładnych infomacji błędu.</t>
+  </si>
+  <si>
+    <t>Data nie odczytana poprawnie. Bardzo dokładne opisanie elementów!</t>
+  </si>
+  <si>
+    <t>Nieosiągalny element. Zduplikowany link.</t>
+  </si>
+  <si>
+    <t>Niski kontrast focusu.</t>
+  </si>
+  <si>
+    <t>Zduplikowany link. Niepoprawna akcja przycisku. Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element. Element nie miesci się na stronie.</t>
+  </si>
+  <si>
+    <t>Użycie popupu jak tooltipa powoduje niespójne działanie czytnika ekranu. Niepoprawny opis przycisku.  Brak informacji o ładowaniu. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użycie popupu jak tooltipa powoduje niespójne działanie czytnika ekranu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedostępny element.Niepoprawna akcja przycisku. 
+Brak widocznego focusu na elemencie interaktywnym.Brak przeniesiania focusu na otwarty popup. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zduplikowany link. Niepoprawna akcja przycisku. Brak widocznego focusu na elemencie interaktywnym. Nieosiągalny element. Element nie miesci się na stronie.Brak przeniesiania focusu na otwarty popup. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niespójny styl focusu.Dropdown nie znika po przejściu do innego elementu. Nieosiąglany element. Brak przeniesiania focusu na otwarty popup. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieosiągalny element.Brak linku ominięcia nagłówka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak mozliwości zatrzymania animacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapętlona informacja z karuzeli odczytana za każdym razem gdy zmieniona jest slajd (niemożliwe do wyłączenia).  Przycisk z nazwą bez kontekstu. Grafika bez tekstu alternatywnego. Grafika z niepoprawnym tekstem alternatywnym. </t>
+  </si>
+  <si>
+    <t>Dropdown menus w headerze się nie otwierają a jednak focus na nich jest, mimo że ich nie widać. Nie ma informacji że to są elementy sub menu so otwieralne. Nieosiągalny element. Dwa linki obok siebie prowadzące do tego soamego miejsca (link i obrazek wiadomosci). Fokus na niewidocznym elemencie. Brak widocznego focusu na elemencie interaktywnym. Niepoprawna kolejnośc tabulacji. Popup bez focus trap. Brak linku ominięcia nagłówka. Zduplikowany link. Zbędny przycisk. Focus na elemntcie nieinteraktywnym.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus na niewidocznym elemencie. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Nieosiągalny element. Odwrócona kolejność focusu na stopce.  Brak linku ominięcia nagłówka. </t>
+  </si>
+  <si>
+    <t>Nawigacja nie oznaczona jako nawigacja. Przycisk rozwijający/zwijający listę niepoprawnie oznaczony (collapsed/expanded). Link z nazwą bez kontekstu. Ominięty poziom headera.  Element nieinteraktywny odczytany jako element interaktywny.Istotna informacja nie odczytana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkbox nie odczytany jako element checkbox. Dropdown oznaczony jako checkbox. Element nieinteraktywny odczytany jako "clickable". Checkbox z neprzypisaną nazwą. Lista nie oznacona jako lista. Ilość pieniędzy nie poprawnie odczytana. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieosiągalny element. Brak widocznego focusu na elemencie interaktywnym. Zduplikowany link. </t>
+  </si>
+  <si>
+    <t>Link odczytany jako "blank". Nawigacja karuzeli odczytana bez kontekstu. Grafika z niepoprawnym tekstem alternatywnym. Podwójne oznaczenie elementów (link-link, button-button). Podwójne oznaczenie elemntu (button I link). Zapętlona informacja z karuzeli odczytana za każdym razem gdy zmieniona jest slajd (niemożliwe do wyłączenia).</t>
+  </si>
+  <si>
+    <t>Nieosiągalny element. Brak widocznego focusu na elemencie interaktywnym.Brak informacji o aktywnej stronie w nawigacji.</t>
+  </si>
+  <si>
+    <t>Brak h1. Checkbox nie oznaczony jako checkbox. Element interaktywny nie odczytany jako interaktywny. Brak nazwy pola formularza. Błędy w walidacji nie są odczytane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak dynamicznej walidacji formularza (dopiero po submicie). Nie consisten walidacja, część default HTML część JS. Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś.  Brak dokładnych errorów walidacji. Brak użycia odpowiedniego typu pól (number, postcode). Pole formularza bez walidacji. </t>
+  </si>
+  <si>
+    <t>Nazwy pól formularzy nie są statyczne, i znikają po wpisaniu czegoś. Brak dokładnych errorów walidacji. Brak użycia odpowiedniego typu pól (number, postcode).Pole formularza bez walidacji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawigacja bez tagu &lt;nav&gt;. Przyciski z tą samą nazwą ale różną funkcjonalnością. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym.
+Nieosiągalny element.Brak informacji o aktywnej stronie w nawigacji. Link do aktywnej strony? Zduplikowany link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link z niepoprawną nazwą. Istotna informacja nie odczytana. Grafika bez tekstu alternatywnego. Grafika z niepoprawnym tekstem alternatywnym. Link bez nazwy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa pola formularza znika po wpisaniu. Brak dokładnych infomacji błędu. Błędy walidacji nie sa zaznaczone na polach formularza. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link z niepoprawną nazwą. Istotna informacja nie odczytana. Link bez nazwy. Checkbox nie oznaczony jako checkbox. Ilość pieniędzy nie poprawnie odczytana. Element interaktywny nie oznaczony jako interaktywny.Nazwa pola formularza nie odczytana. Brak informacji o otwartym popupie. Przycisk odczytany jako "blank". Brak atrybutu "alt" na istotnej grafice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak widocznego focusu na elemencie interaktywnym. Niedostępne linki niewidoczne aktualnie w karuzeli. Niedziałający przycisk. Nieosiągalny element interaktywny. Brak informacji o aktywnej stronie w nawigacji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link z niepoprawną nazwą. Istotna informacja nie odczytana. Link bez nazwy.  Brak atrybutu "alt" na istotnej grafice. </t>
+  </si>
+  <si>
+    <t>Niepoprawna kolejność nawigacji. Nieosiągalny element interaktywny. Brak wsparcia.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -978,9 +1056,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1858,7 +1933,9 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,7 +1982,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1913,62 +1990,62 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1976,62 +2053,62 @@
         <v>98</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2039,63 +2116,62 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2181,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2113,42 +2189,42 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2156,43 +2232,43 @@
         <v>85</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>265</v>
+        <v>198</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2200,43 +2276,43 @@
         <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2322,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2257,27 +2333,27 @@
         <v>138</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>134</v>
@@ -2286,18 +2362,18 @@
         <v>134</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>134</v>
@@ -2306,10 +2382,10 @@
         <v>134</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2317,10 +2393,10 @@
         <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>134</v>
@@ -2329,18 +2405,18 @@
         <v>134</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>134</v>
@@ -2349,18 +2425,18 @@
         <v>134</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>134</v>
@@ -2369,10 +2445,10 @@
         <v>134</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -2380,10 +2456,10 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>134</v>
@@ -2392,10 +2468,10 @@
         <v>134</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>109</v>
       </c>
@@ -2403,7 +2479,7 @@
         <v>135</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>134</v>
@@ -2412,15 +2488,15 @@
         <v>134</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>134</v>
@@ -2429,10 +2505,10 @@
         <v>134</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2440,13 +2516,13 @@
         <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>134</v>
@@ -2455,15 +2531,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>134</v>
@@ -2472,21 +2548,21 @@
         <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>134</v>
@@ -2495,8 +2571,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2581,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2514,59 +2589,59 @@
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2574,10 +2649,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>134</v>
@@ -2586,18 +2661,18 @@
         <v>134</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>134</v>
@@ -2606,18 +2681,18 @@
         <v>134</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>134</v>
@@ -2626,10 +2701,10 @@
         <v>134</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2637,7 +2712,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>236</v>
+        <v>201</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>134</v>
@@ -2646,15 +2724,18 @@
         <v>134</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>134</v>
@@ -2663,15 +2744,18 @@
         <v>134</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>134</v>
@@ -2680,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,19 +2785,19 @@
         <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,19 +2805,19 @@
         <v>109</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,19 +2825,19 @@
         <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2764,19 +2848,19 @@
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2784,16 +2868,19 @@
         <v>109</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2801,19 +2888,22 @@
         <v>108</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2821,53 +2911,62 @@
         <v>63</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>217</v>
+        <v>237</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>131</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>199</v>
+        <v>240</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2877,7 +2976,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -2885,10 +2984,10 @@
         <v>24</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>134</v>
@@ -2897,18 +2996,18 @@
         <v>134</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>109</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>134</v>
@@ -2917,18 +3016,18 @@
         <v>134</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>134</v>
@@ -2937,10 +3036,10 @@
         <v>134</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -2948,10 +3047,10 @@
         <v>95</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>134</v>
@@ -2960,18 +3059,18 @@
         <v>134</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>134</v>
@@ -2980,18 +3079,18 @@
         <v>134</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>134</v>
@@ -3000,10 +3099,10 @@
         <v>134</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -3011,10 +3110,10 @@
         <v>25</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>134</v>
@@ -3023,18 +3122,18 @@
         <v>134</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="300" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>109</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>134</v>
@@ -3043,18 +3142,18 @@
         <v>134</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>134</v>
@@ -3063,11 +3162,10 @@
         <v>134</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3175,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3085,35 +3183,35 @@
         <v>26</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>120</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -3121,38 +3219,38 @@
         <v>119</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>120</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>121</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -3160,56 +3258,56 @@
         <v>84</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3230,22 +3328,22 @@
         <v>27</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -3253,19 +3351,22 @@
         <v>90</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>187</v>
+        <v>242</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -3273,19 +3374,19 @@
         <v>67</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3298,15 +3399,18 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>202</v>
+        <v>252</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>134</v>
@@ -3315,21 +3419,24 @@
         <v>134</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>201</v>
+        <v>175</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>134</v>
@@ -3343,7 +3450,10 @@
         <v>104</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>200</v>
+        <v>253</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>134</v>
@@ -3352,7 +3462,7 @@
         <v>134</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3365,7 +3475,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -3373,16 +3483,19 @@
         <v>126</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>215</v>
+        <v>248</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>134</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3393,36 +3506,42 @@
         <v>58</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>209</v>
+        <v>180</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>145</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3435,7 +3554,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -3443,53 +3562,59 @@
         <v>29</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>214</v>
+        <v>282</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>213</v>
+        <v>182</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>130</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>212</v>
+        <v>283</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -3497,50 +3622,62 @@
         <v>72</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>210</v>
+        <v>286</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>129</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>209</v>
+        <v>288</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>130</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>208</v>
+        <v>293</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -3548,47 +3685,56 @@
         <v>51</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>129</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>206</v>
+        <v>297</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>130</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>205</v>
+        <v>178</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>140</v>

--- a/Praca magisterska/testy — kopia.xlsx
+++ b/Praca magisterska/testy — kopia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annap\Documents\UNI\masters\Praca magisterska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1226D3-2BFB-4B51-B791-C919CD4D9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8B84C-AF53-451F-A8E1-8CB1416FFB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D880F8F0-0502-42C4-AF59-EACA8E54CEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1935,7 +1935,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2291,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
